--- a/Account.xlsx
+++ b/Account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A117E27-D407-4C4C-A4C9-997B60BC8B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC54D993-E8E9-4CD6-864F-65E49DB0B9DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
